--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 30-4.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 30-4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9DE92D-3706-4505-B181-DC79BDC2877C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17861FA9-B022-4039-BE55-8EEBCB198475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="GEKB" sheetId="5" r:id="rId5"/>
     <sheet name="DA" sheetId="6" r:id="rId6"/>
     <sheet name="STKWp" sheetId="10" r:id="rId7"/>
-    <sheet name="BSKW" sheetId="14" r:id="rId8"/>
-    <sheet name="HTKW" sheetId="9" r:id="rId9"/>
+    <sheet name="HTKW" sheetId="9" r:id="rId8"/>
+    <sheet name="BSKW" sheetId="14" r:id="rId9"/>
     <sheet name="Veiligheidsoordeel" sheetId="7" r:id="rId10"/>
     <sheet name="Gecombineerd vakoordeel" sheetId="8" r:id="rId11"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="121">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -384,9 +384,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t>Correlated</t>
-  </si>
-  <si>
     <t>Pf corr</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>1-Pf tussen uncorr</t>
+  </si>
+  <si>
+    <t>Gecorreleerd</t>
   </si>
 </sst>
 </file>
@@ -1926,14 +1926,20 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -1995,7 +2001,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>74</v>
@@ -2004,22 +2010,22 @@
         <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2027,23 +2033,24 @@
         <v>65</v>
       </c>
       <c r="C7" s="29" t="str">
+        <f>STPH!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D7" s="25">
+        <f>STPH!C8</f>
+        <v>2.1279180495437089E-7</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="23" t="str">
         <f>STPH!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D7" s="25">
-        <f>STPH!C7</f>
-        <v>2.1279180495437089E-7</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H7" s="1" t="e">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.99999978720819505</v>
       </c>
       <c r="J7" s="1" t="e">
@@ -2055,19 +2062,19 @@
         <v>2.1279180495437089E-7</v>
       </c>
       <c r="L7" s="1" t="e">
-        <f>F7*J7</f>
+        <f>IF(F7="Ja",1,0)*J7</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="1" t="e">
-        <f>1-(1-F7)*J7</f>
+        <f>1-(1-IF(F7="Ja",1,0))*J7</f>
         <v>#VALUE!</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f>IF(F7="Ja",1,0)*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <f>1-(1-F7)*K7</f>
+        <f>1-(1-IF(F7="Ja",1,0))*K7</f>
         <v>0.99999978720819505</v>
       </c>
     </row>
@@ -2076,47 +2083,48 @@
         <v>66</v>
       </c>
       <c r="C8" s="31" t="str">
+        <f>STBI!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D8" s="26">
+        <f>STBI!C8</f>
+        <v>4.5997963771249317E-8</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="23" t="str">
         <f>STBI!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D8" s="26">
-        <f>STBI!C7</f>
+        <v>Nee</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999995400203623</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f t="shared" ref="J8:K13" si="2">1-H8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
         <v>4.5997963771249317E-8</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="e">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+      <c r="L8" s="1" t="e">
+        <f t="shared" ref="L8:L13" si="3">IF(F8="Ja",1,0)*J8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
-        <v>0.99999995400203623</v>
-      </c>
-      <c r="J8" s="1" t="e">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+      <c r="M8" s="1" t="e">
+        <f t="shared" ref="M8:M13" si="4">1-(1-IF(F8="Ja",1,0))*J8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5997963771249317E-8</v>
-      </c>
-      <c r="L8" s="1" t="e">
-        <f>F8*J8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="1" t="e">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
+        <f t="shared" ref="N8:N13" si="5">IF(F8="Ja",1,0)*K8</f>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
+        <f t="shared" ref="O8:O13" si="6">1-(1-IF(F8="Ja",1,0))*K8</f>
         <v>0.99999995400203623</v>
       </c>
     </row>
@@ -2125,47 +2133,48 @@
         <v>67</v>
       </c>
       <c r="C9" s="31" t="str">
+        <f>GEKB!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D9" s="26">
+        <f>GEKB!C8</f>
+        <v>1.2399999960166497E-7</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="23" t="str">
         <f>GEKB!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D9" s="26">
-        <f>GEKB!C7</f>
-        <v>1.2399999960166497E-7</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H9" s="1" t="e">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
-        <v>0.9999998760000004</v>
-      </c>
-      <c r="J9" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9999998760000004</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2399999960166497E-7</v>
       </c>
       <c r="L9" s="1" t="e">
-        <f>F9*J9</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9999998760000004</v>
       </c>
     </row>
@@ -2174,47 +2183,48 @@
         <v>68</v>
       </c>
       <c r="C10" s="31">
+        <f>DA!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f>DA!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="23" t="str">
         <f>DA!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="26">
-        <f>DA!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>F10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2223,47 +2233,48 @@
         <v>69</v>
       </c>
       <c r="C11" s="31" t="str">
+        <f>STKWp!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D11" s="26">
+        <f>STKWp!C8</f>
+        <v>7.1118888556043203E-9</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="23" t="str">
         <f>STKWp!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D11" s="26">
-        <f>STKWp!C7</f>
-        <v>7.1118888556043203E-9</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H11" s="1" t="e">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
-        <v>0.99999999288811114</v>
-      </c>
-      <c r="J11" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999999288811114</v>
+      </c>
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1118888556043203E-9</v>
       </c>
       <c r="L11" s="1" t="e">
-        <f>F11*J11</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="M11" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999999288811114</v>
       </c>
     </row>
@@ -2272,47 +2283,48 @@
         <v>70</v>
       </c>
       <c r="C12" s="31" t="str">
+        <f>HTKW!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D12" s="26">
+        <f>HTKW!C8</f>
+        <v>1.0039999960298474E-6</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="23" t="str">
         <f>HTKW!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D12" s="26">
-        <f>HTKW!C7</f>
-        <v>1.0039999960298474E-6</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H12" s="1" t="e">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
-        <v>0.99999899600000397</v>
-      </c>
-      <c r="J12" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999899600000397</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0039999960298474E-6</v>
       </c>
       <c r="L12" s="1" t="e">
-        <f>F12*J12</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="M12" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999899600000397</v>
       </c>
     </row>
@@ -2321,47 +2333,48 @@
         <v>89</v>
       </c>
       <c r="C13" s="31" t="str">
+        <f>BSKW!C7</f>
+        <v>GR</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C8</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="23" t="str">
         <f>BSKW!C6</f>
-        <v>GR</v>
-      </c>
-      <c r="D13" s="26">
-        <f>BSKW!C7</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H13" s="1" t="e">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="J13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000287557E-6</v>
       </c>
       <c r="L13" s="1" t="e">
-        <f>F13*J13</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="M13" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999899999999997</v>
       </c>
     </row>
@@ -2376,7 +2389,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2523,31 +2536,31 @@
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B3,C3),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F3">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B3,C3),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B3,C3),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G3">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B3,C3),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B3,C3),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B3,C3),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B3,C3),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I3">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B3,C3),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B3,C3),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J3">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B3,C3),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="array" ref="K3">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B3,C3),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K3">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B3,C3),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="L3" s="7" t="str">
-        <f t="array" ref="L3">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B3,C3),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L3">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B3,C3),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2567,31 +2580,31 @@
         <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B4,C4),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F4">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B4,C4),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B4,C4),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B4,C4),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B4,C4),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B4,C4),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B4,C4),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I4">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B4,C4),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B4,C4),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J4">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B4,C4),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="array" ref="K4">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B4,C4),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K4">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B4,C4),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="array" ref="L4">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B4,C4),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L4">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B4,C4),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2611,31 +2624,31 @@
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B5,C5),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F5">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B5,C5),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B5,C5),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B5,C5),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B5,C5),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B5,C5),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B5,C5),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I5">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B5,C5),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B5,C5),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J5">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B5,C5),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="array" ref="K5">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B5,C5),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K5">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B5,C5),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="array" ref="L5">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B5,C5),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L5">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B5,C5),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>+II</v>
       </c>
     </row>
@@ -2655,31 +2668,31 @@
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B6,C6),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F6">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B6,C6),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B6,C6),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G6">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B6,C6),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B6,C6),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B6,C6),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B6,C6),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I6">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B6,C6),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B6,C6),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J6">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B6,C6),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="array" ref="K6">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B6,C6),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K6">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B6,C6),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="array" ref="L6">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B6,C6),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L6">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B6,C6),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2699,31 +2712,31 @@
         <v>+I</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B7,C7),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F7">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B7,C7),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B7,C7),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B7,C7),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+I</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B7,C7),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B7,C7),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B7,C7),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I7">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B7,C7),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B7,C7),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J7">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B7,C7),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="array" ref="K7">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B7,C7),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K7">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B7,C7),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="array" ref="L7">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B7,C7),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L7">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B7,C7),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
     </row>
@@ -2743,31 +2756,31 @@
         <v>+I</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B8,C8),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F8">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B8,C8),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B8,C8),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G8">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B8,C8),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+I</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B8,C8),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B8,C8),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B8,C8),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B8,C8),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B8,C8),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J8">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B8,C8),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="array" ref="K8">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B8,C8),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K8">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B8,C8),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="array" ref="L8">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B8,C8),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L8">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B8,C8),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2787,31 +2800,31 @@
         <v>+0</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B9,C9),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F9">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B9,C9),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B9,C9),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B9,C9),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+I</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B9,C9),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B9,C9),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>+II</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B9,C9),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B9,C9),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B9,C9),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J9">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B9,C9),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>+II</v>
       </c>
       <c r="K9" s="9" t="str">
-        <f t="array" ref="K9">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B9,C9),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K9">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B9,C9),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="array" ref="L9">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B9,C9),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L9">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B9,C9),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>+0</v>
       </c>
     </row>
@@ -2831,31 +2844,31 @@
         <v>+I</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B10,C10),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F10">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B10,C10),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B10,C10),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B10,C10),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+I</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B10,C10),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B10,C10),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>+II</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B10,C10),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B10,C10),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B10,C10),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J10">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B10,C10),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="array" ref="K10">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B10,C10),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K10">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B10,C10),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="array" ref="L10">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B10,C10),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L10">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B10,C10),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2875,31 +2888,31 @@
         <v>+I</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B11,C11),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F11">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B11,C11),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B11,C11),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G11">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B11,C11),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>+I</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B11,C11),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B11,C11),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>+II</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(DA!$K$15:$K$34,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$34&gt;AVERAGE(B11,C11),DA!$D$15:$D$34)),DA!$D$15:$D$34),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$16:$K$35,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$35&gt;AVERAGE(B11,C11),DA!$D$16:$D$35)),DA!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B11,C11),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J11">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B11,C11),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="K11" s="9" t="str">
-        <f t="array" ref="K11">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B11,C11),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K11">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B11,C11),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>+III</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="array" ref="L11">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B11,C11),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L11">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B11,C11),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>D</v>
       </c>
     </row>
@@ -3286,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Z36"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,278 +3359,202 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q15:Q34),MAX(S15:S34)),"GR")</f>
-        <v>GR</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(R15:R34),MAX(T15:T34))</f>
-        <v>2.1279180495437089E-7</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(Y15:Y34),"GR")</f>
-        <v>GR</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
+        <v>2.1279180495437089E-7</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(Z15:Z34)</f>
-        <v>1.0645848114165801E-7</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(Y16:Y35),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(Z16:Z35)</f>
+        <v>1.0645848114165801E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(Q15:Q34),"GR")</f>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(Q16:Q35),"GR")</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(R15:R34)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(R16:R35)</f>
         <v>2.1279180495437089E-7</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q13" t="s">
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="35" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="V14" s="37" t="s">
+      <c r="V15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="37" t="s">
+      <c r="W15" s="4"/>
+      <c r="X15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="37" t="s">
+      <c r="Y15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="38" t="s">
+      <c r="Z15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.5</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>6.3875088715400993E-8</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H16" s="25">
         <v>1.0645848119233497E-7</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29">
-        <f t="shared" ref="L15:L18" si="0">IF($E15="Nee",0,IF(I15="Ja",IF(ISNUMBER(J15),J15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="J16" s="5"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="29">
+        <f t="shared" ref="L16:L19" si="0">IF($E16="Nee",0,IF(I16="Ja",IF(ISNUMBER(J16),J16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
         <v>6.3875088715400993E-8</v>
       </c>
-      <c r="M15" s="5">
-        <f t="shared" ref="M15:M18" si="1">IF($E15="Nee",0,IF(I15="Ja",IF(ISNUMBER(K15),K15,"-"),IF(ISNUMBER(H15),H15,"-")))</f>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:M19" si="1">IF($E16="Nee",0,IF(I16="Ja",IF(ISNUMBER(K16),K16,"-"),IF(ISNUMBER(H16),H16,"-")))</f>
         <v>1.0645848119233497E-7</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" ref="N15:N18" si="2">IF(ISNUMBER(L15),IF(M15=0,1,M15/L15),"-")</f>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N19" si="2">IF(ISNUMBER(L16),IF(M16=0,1,M16/L16),"-")</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="O15" s="30" t="str">
-        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
-        <v>+0</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" ref="Q15" si="3">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
-        <v>0.99999989354151886</v>
-      </c>
-      <c r="R15" s="10">
-        <f>IF(M15="-",1,Q15)</f>
-        <v>0.99999989354151886</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" ref="S15" si="4">IF(AND(F15="Geen faalkans",I15="Nee"),0,L15*$C$3)</f>
-        <v>1.8459900638750886E-6</v>
-      </c>
-      <c r="T15" s="10">
-        <f>IF(L15="-",0,S15)</f>
-        <v>1.8459900638750886E-6</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>+0</v>
-      </c>
-      <c r="X15" s="9" t="b">
-        <f>IF($E15="Ja",IF($I15="Ja",NOT(ISNUMBER($J15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>1-Q15</f>
-        <v>1.0645848114165801E-7</v>
-      </c>
-      <c r="Z15" s="26">
-        <f>1-R15</f>
-        <v>1.0645848114165801E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10">
-        <v>6.3800000000000002E-8</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1.0633333333333333E-7</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="31">
-        <f t="shared" si="0"/>
-        <v>6.3800000000000002E-8</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="shared" si="1"/>
-        <v>1.0633333333333333E-7</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="O16" s="32" t="str">
+      <c r="O16" s="30" t="str">
         <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
         <v>+0</v>
       </c>
       <c r="Q16" s="31">
-        <f t="shared" ref="Q16:Q18" si="5">IF(AND(F16="Geen faalkans",I16="Nee"),1,1-M16)</f>
-        <v>0.99999989366666664</v>
+        <f t="shared" ref="Q16" si="3">IF(AND(F16="Geen faalkans",I16="Nee"),1,1-M16)</f>
+        <v>0.99999989354151886</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" ref="R16:R18" si="6">IF(M16="-",1,Q16)</f>
-        <v>0.99999989366666664</v>
+        <f>IF(M16="-",1,Q16)</f>
+        <v>0.99999989354151886</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" ref="S16:S18" si="7">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
-        <v>1.8438199999999999E-6</v>
+        <f t="shared" ref="S16" si="4">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
+        <v>1.8459900638750886E-6</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" ref="T16:T18" si="8">IF(L16="-",0,S16)</f>
-        <v>1.8438199999999999E-6</v>
+        <f>IF(L16="-",0,S16)</f>
+        <v>1.8459900638750886E-6</v>
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3632,27 +3569,27 @@
         <v>+0</v>
       </c>
       <c r="X16" s="9" t="b">
-        <f t="shared" ref="X16:X18" si="9">IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
+        <f>IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" ref="Y16:Y18" si="10">1-Q16</f>
-        <v>1.0633333336063089E-7</v>
+        <f>1-Q16</f>
+        <v>1.0645848114165801E-7</v>
       </c>
       <c r="Z16" s="26">
-        <f t="shared" ref="Z16:Z18" si="11">1-R16</f>
-        <v>1.0633333336063089E-7</v>
+        <f>1-R16</f>
+        <v>1.0645848114165801E-7</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.5</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>17</v>
@@ -3661,135 +3598,135 @@
         <v>21</v>
       </c>
       <c r="G17" s="10">
-        <v>2.9999999999999997E-5</v>
+        <v>6.3800000000000002E-8</v>
       </c>
       <c r="H17" s="26">
         <v>1.0633333333333333E-7</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="31" t="str">
+      <c r="L17" s="31">
+        <f t="shared" si="0"/>
+        <v>6.3800000000000002E-8</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0633333333333333E-7</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f>IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
+        <v>+0</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" ref="Q17:Q19" si="5">IF(AND(F17="Geen faalkans",I17="Nee"),1,1-M17)</f>
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" ref="R17:R19" si="6">IF(M17="-",1,Q17)</f>
+        <v>0.99999989366666664</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" ref="S17:S19" si="7">IF(AND(F17="Geen faalkans",I17="Nee"),0,L17*$C$3)</f>
+        <v>1.8438199999999999E-6</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" ref="T17:T19" si="8">IF(L17="-",0,S17)</f>
+        <v>1.8438199999999999E-6</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="V17" s="9">
+        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="W17" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
+        <v>+0</v>
+      </c>
+      <c r="X17" s="9" t="b">
+        <f t="shared" ref="X17:X19" si="9">IF($E17="Ja",IF($I17="Ja",NOT(ISNUMBER($J17)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" ref="Y17:Y19" si="10">1-Q17</f>
+        <v>1.0633333336063089E-7</v>
+      </c>
+      <c r="Z17" s="26">
+        <f t="shared" ref="Z17:Z19" si="11">1-R17</f>
+        <v>1.0633333336063089E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1.0633333333333333E-7</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="31" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="N18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="O17" s="32" t="str">
-        <f>IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
+      <c r="O18" s="32" t="str">
+        <f>IF(E18="Nee","NR",IF(ISNUMBER($M18),W18,IF($X18,"D","ND")))</f>
         <v>D</v>
       </c>
-      <c r="Q17" s="31" t="e">
+      <c r="Q18" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R18" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S17" s="10" t="e">
+      <c r="S18" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T17" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
-        <v>+III</v>
-      </c>
-      <c r="X17" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z17" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1.0000000000000001E-15</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1.7573333333333336E-15</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="31">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000001E-15</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7573333333333336E-15</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="2"/>
-        <v>1.7573333333333334</v>
-      </c>
-      <c r="O18" s="32" t="str">
-        <f>IF(E18="Nee","NR",IF(ISNUMBER($M18),W18,IF($X18,"D","ND")))</f>
-        <v>+III</v>
-      </c>
-      <c r="Q18" s="31">
-        <f t="shared" si="5"/>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="7"/>
-        <v>2.8900000000000002E-14</v>
-      </c>
       <c r="T18" s="10">
         <f t="shared" si="8"/>
-        <v>2.8900000000000002E-14</v>
+        <v>0</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -3801,42 +3738,100 @@
       </c>
       <c r="X18" s="9" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1.7573333333333336E-15</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7573333333333336E-15</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7573333333333334</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f>IF(E19="Nee","NR",IF(ISNUMBER($M19),W19,IF($X19,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="7"/>
+        <v>2.8900000000000002E-14</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8900000000000002E-14</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="V19" s="9">
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
+        <v>+III</v>
+      </c>
+      <c r="X19" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
         <f t="shared" si="10"/>
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z19" s="26">
         <f t="shared" si="11"/>
         <v>1.7763568394002505E-15</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -4202,50 +4197,76 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="34"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="32"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="34"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
     </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:H34">
+  <conditionalFormatting sqref="G16:H35">
     <cfRule type="expression" dxfId="81" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K34">
+  <conditionalFormatting sqref="J16:K35">
     <cfRule type="expression" dxfId="80" priority="10">
-      <formula>IF($I15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O34">
+  <conditionalFormatting sqref="O16:O35">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -4263,7 +4284,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="12" operator="endsWith" id="{F4C956AC-4E51-489A-B485-D8BDC4A2FBD8}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4274,7 +4295,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="13" operator="endsWith" id="{EC1E636F-FA52-4882-8914-4A6967CF2391}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -4285,7 +4306,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{FFF59E8A-EABB-417F-BB55-82036CECB9D8}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -4296,7 +4317,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{B198F5CD-E767-4F17-B69C-63325B705E57}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -4307,7 +4328,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3DC54A52-4129-476D-B4F0-C6819CA98DA8}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -4318,7 +4339,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{679DAC17-7B4C-4FB7-B8DA-924271D929B5}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -4328,7 +4349,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O15:O34</xm:sqref>
+          <xm:sqref>O16:O35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4338,7 +4359,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E35:E50 F15:F34</xm:sqref>
+          <xm:sqref>E36:E51 F16:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4348,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Z36"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,284 +4427,208 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q15:Q34),MAX(S15:S34)),"GR")</f>
-        <v>GR</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(R15:R34),MAX(T15:T34))</f>
-        <v>4.5997963771249317E-8</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(Y15:Y34),"GR")</f>
-        <v>GR</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
+        <v>4.5997963771249317E-8</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(Z15:Z34)</f>
-        <v>2.3254964287566793E-8</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(Y16:Y35),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(Z16:Z35)</f>
+        <v>2.3254964287566793E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(Q15:Q34),"GR")</f>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(Q16:Q35),"GR")</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(R15:R34)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(R16:R35)</f>
         <v>4.5997963771249317E-8</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q13" t="s">
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="35" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="V14" s="37" t="s">
+      <c r="V15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="37" t="s">
+      <c r="W15" s="4"/>
+      <c r="X15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="37" t="s">
+      <c r="Y15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="38" t="s">
+      <c r="Z15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.5</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>1E-10</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H16" s="25">
         <v>1.3300000000000001E-10</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29">
-        <f t="shared" ref="L15:L18" si="0">IF($E15="Nee",0,IF(I15="Ja",IF(ISNUMBER(J15),J15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="J16" s="5"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="29">
+        <f t="shared" ref="L16:L19" si="0">IF($E16="Nee",0,IF(I16="Ja",IF(ISNUMBER(J16),J16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
         <v>1E-10</v>
       </c>
-      <c r="M15" s="5">
-        <f t="shared" ref="M15:M18" si="1">IF($E15="Nee",0,IF(I15="Ja",IF(ISNUMBER(K15),K15,"-"),IF(ISNUMBER(H15),H15,"-")))</f>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:M19" si="1">IF($E16="Nee",0,IF(I16="Ja",IF(ISNUMBER(K16),K16,"-"),IF(ISNUMBER(H16),H16,"-")))</f>
         <v>1.3300000000000001E-10</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" ref="N15:N18" si="2">IF(ISNUMBER(L15),IF(M15=0,1,M15/L15),"-")</f>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N19" si="2">IF(ISNUMBER(L16),IF(M16=0,1,M16/L16),"-")</f>
         <v>1.33</v>
       </c>
-      <c r="O15" s="30" t="str">
-        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
+      <c r="O16" s="30" t="str">
+        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
         <v>+III</v>
       </c>
-      <c r="Q15" s="31">
-        <f t="shared" ref="Q15:Q18" si="3">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
+      <c r="Q16" s="31">
+        <f t="shared" ref="Q16:Q19" si="3">IF(AND(F16="Geen faalkans",I16="Nee"),1,1-M16)</f>
         <v>0.99999999986699994</v>
       </c>
-      <c r="R15" s="10">
-        <f>IF(M15="-",1,Q15)</f>
+      <c r="R16" s="10">
+        <f>IF(M16="-",1,Q16)</f>
         <v>0.99999999986699994</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" ref="S15:S18" si="4">IF(AND(F15="Geen faalkans",I15="Nee"),0,L15*$C$3)</f>
+      <c r="S16" s="10">
+        <f t="shared" ref="S16:S19" si="4">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
         <v>1.4800000000000001E-9</v>
       </c>
-      <c r="T15" s="10">
-        <f>IF(L15="-",0,S15)</f>
+      <c r="T16" s="10">
+        <f>IF(L16="-",0,S16)</f>
         <v>1.4800000000000001E-9</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>+III</v>
-      </c>
-      <c r="X15" s="9" t="b">
-        <f>IF($E15="Ja",IF($I15="Ja",NOT(ISNUMBER($J15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>1-Q15</f>
-        <v>1.3300005541339033E-10</v>
-      </c>
-      <c r="Z15" s="26">
-        <f>1-R15</f>
-        <v>1.3300005541339033E-10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1.3300000000000001E-10</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="M16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="N16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="O16" s="32" t="str">
-        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
-        <v>D</v>
-      </c>
-      <c r="Q16" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" ref="R16:R18" si="5">IF(M16="-",1,Q16)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" ref="T16:T18" si="6">IF(L16="-",0,S16)</f>
-        <v>0</v>
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -4694,27 +4639,27 @@
         <v>+III</v>
       </c>
       <c r="X16" s="9" t="b">
-        <f t="shared" ref="X16:X18" si="7">IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="10" t="e">
-        <f t="shared" ref="Y16:Y18" si="8">1-Q16</f>
-        <v>#VALUE!</v>
+        <f>IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>1-Q16</f>
+        <v>1.3300005541339033E-10</v>
       </c>
       <c r="Z16" s="26">
-        <f t="shared" ref="Z16:Z18" si="9">1-R16</f>
-        <v>0</v>
+        <f>1-R16</f>
+        <v>1.3300005541339033E-10</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.5</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>17</v>
@@ -4723,82 +4668,82 @@
         <v>21</v>
       </c>
       <c r="G17" s="10">
-        <v>1.7E-8</v>
+        <v>1E-4</v>
       </c>
       <c r="H17" s="26">
-        <v>2.2610000000000002E-8</v>
+        <v>1.3300000000000001E-10</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="31">
+      <c r="L17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>1.7E-8</v>
-      </c>
-      <c r="M17" s="10">
+        <v>-</v>
+      </c>
+      <c r="M17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>2.2610000000000002E-8</v>
-      </c>
-      <c r="N17" s="11">
+        <v>-</v>
+      </c>
+      <c r="N17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>1.33</v>
+        <v>-</v>
       </c>
       <c r="O17" s="32" t="str">
         <f>IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
-        <v>+I</v>
-      </c>
-      <c r="Q17" s="31">
+        <v>D</v>
+      </c>
+      <c r="Q17" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>0.99999997739000002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="5"/>
-        <v>0.99999997739000002</v>
-      </c>
-      <c r="S17" s="10">
+        <f t="shared" ref="R17:R19" si="5">IF(M17="-",1,Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="10" t="e">
         <f t="shared" si="4"/>
-        <v>2.516E-7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="6"/>
-        <v>2.516E-7</v>
+        <f t="shared" ref="T17:T19" si="6">IF(L17="-",0,S17)</f>
+        <v>0</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-8</v>
+        <v>0</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
-        <v>+I</v>
+        <v>+III</v>
       </c>
       <c r="X17" s="9" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10">
-        <f t="shared" si="8"/>
-        <v>2.2609999983380646E-8</v>
+        <f t="shared" ref="X17:X19" si="7">IF($E17="Ja",IF($I17="Ja",NOT(ISNUMBER($J17)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="10" t="e">
+        <f t="shared" ref="Y17:Y19" si="8">1-Q17</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Z17" s="26">
-        <f t="shared" si="9"/>
-        <v>2.2609999983380646E-8</v>
+        <f t="shared" ref="Z17:Z19" si="9">1-R17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
         <v>1.5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2.0680000000000001</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>17</v>
@@ -4807,10 +4752,10 @@
         <v>21</v>
       </c>
       <c r="G18" s="10">
-        <v>1.6914177463549946E-8</v>
+        <v>1.7E-8</v>
       </c>
       <c r="H18" s="26">
-        <v>2.3254964311085553E-8</v>
+        <v>2.2610000000000002E-8</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>18</v>
@@ -4819,15 +4764,15 @@
       <c r="K18" s="26"/>
       <c r="L18" s="31">
         <f t="shared" si="0"/>
-        <v>1.6914177463549946E-8</v>
+        <v>1.7E-8</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>2.3254964311085553E-8</v>
+        <v>2.2610000000000002E-8</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="2"/>
-        <v>1.3748800000000001</v>
+        <v>1.33</v>
       </c>
       <c r="O18" s="32" t="str">
         <f>IF(E18="Nee","NR",IF(ISNUMBER($M18),W18,IF($X18,"D","ND")))</f>
@@ -4835,19 +4780,19 @@
       </c>
       <c r="Q18" s="31">
         <f t="shared" si="3"/>
-        <v>0.99999997674503571</v>
+        <v>0.99999997739000002</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999997674503571</v>
+        <v>0.99999997739000002</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>2.5032982646053922E-7</v>
+        <v>2.516E-7</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="6"/>
-        <v>2.5032982646053922E-7</v>
+        <v>2.516E-7</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4867,38 +4812,96 @@
       </c>
       <c r="Y18" s="10">
         <f t="shared" si="8"/>
-        <v>2.3254964287566793E-8</v>
+        <v>2.2609999983380646E-8</v>
       </c>
       <c r="Z18" s="26">
         <f t="shared" si="9"/>
-        <v>2.3254964287566793E-8</v>
+        <v>2.2609999983380646E-8</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.6914177463549946E-8</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2.3254964311085553E-8</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="12"/>
+      <c r="L19" s="31">
+        <f t="shared" si="0"/>
+        <v>1.6914177463549946E-8</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3254964311085553E-8</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3748800000000001</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f>IF(E19="Nee","NR",IF(ISNUMBER($M19),W19,IF($X19,"D","ND")))</f>
+        <v>+I</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999997674503571</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="4"/>
+        <v>2.5032982646053922E-7</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="6"/>
+        <v>2.5032982646053922E-7</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="V19" s="9">
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="W19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
+        <v>+I</v>
+      </c>
+      <c r="X19" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="8"/>
+        <v>2.3254964287566793E-8</v>
+      </c>
+      <c r="Z19" s="26">
+        <f t="shared" si="9"/>
+        <v>2.3254964287566793E-8</v>
+      </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -5264,50 +5267,76 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="34"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="32"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="34"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
     </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:H34">
+  <conditionalFormatting sqref="G16:H35">
     <cfRule type="expression" dxfId="70" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K34">
+  <conditionalFormatting sqref="J16:K35">
     <cfRule type="expression" dxfId="69" priority="10">
-      <formula>IF($I15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O34">
+  <conditionalFormatting sqref="O16:O35">
     <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -5325,7 +5354,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{BE7CEC02-BF34-4418-BA82-1F9327982DD9}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -5336,7 +5365,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{8B8AF12F-6D43-41F5-A825-07E4CD293723}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -5347,7 +5376,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{C08839C3-1BBE-44B3-9E34-E7A0C5F8DF48}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -5358,7 +5387,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="21" operator="endsWith" id="{609609D6-F910-4ACA-AD7C-326B654C721E}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -5369,7 +5398,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="22" operator="containsText" id="{B5912E85-BF07-4182-88DE-E52A178CDED9}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -5380,7 +5409,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99BDEDF-CF44-4426-B3A0-7E5479615479}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -5390,7 +5419,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O15:O34</xm:sqref>
+          <xm:sqref>O16:O35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5400,7 +5429,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E35:E50 F15:F34</xm:sqref>
+          <xm:sqref>E36:E51 F16:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5410,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:X77"/>
+  <dimension ref="B2:X78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,319 +5495,255 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M75),MAX(O15:O75)),"GR")</f>
-        <v>GR</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N75),MAX(P15:P75))</f>
-        <v>1.2399999960166497E-7</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M76),MAX(O16:O76)),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(U15:U75),"GR")</f>
-        <v>GR</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(N16:N76),MAX(P16:P76))</f>
+        <v>1.2399999960166497E-7</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(V15:V75)</f>
-        <v>1.200000000478596E-7</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(U16:U76),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V76)</f>
+        <v>1.200000000478596E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(M15:M75),"GR")</f>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(M16:M76),"GR")</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N75)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N76)</f>
         <v>1.2399999960166497E-7</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="37" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.5</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G16" s="25">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I16" s="25">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" ref="J15:J16" si="0">IF($E15="Nee",0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:J17" si="0">IF($E16="Nee",0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="K15" s="30" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+      <c r="K16" s="30" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
         <v>+0</v>
       </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="1">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16" si="1">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>0.99999987999999995</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="2">IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="2">IF(J16="-",1,M16)</f>
         <v>0.99999987999999995</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" ref="O15" si="3">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+      <c r="O16" s="10">
+        <f t="shared" ref="O16" si="3">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>2.3999999999999998E-7</v>
       </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
         <v>2.3999999999999998E-7</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+0</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>1.200000000478596E-7</v>
-      </c>
-      <c r="V15" s="26">
-        <f t="shared" ref="V15" si="4">1-N15</f>
-        <v>1.200000000478596E-7</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" t="str">
-        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="M16" s="31">
-        <f t="shared" ref="M16:M18" si="5">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" ref="N16:N18" si="6">IF(J16="-",1,M16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" ref="O16:O18" si="7">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" ref="P16:P18" si="8">IF(J16="-",0,O16)</f>
-        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+0</v>
       </c>
       <c r="T16" s="9" t="b">
-        <f t="shared" ref="T16:T18" si="9">IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" ref="U16:U18" si="10">1-M16</f>
-        <v>0</v>
+        <f>1-M16</f>
+        <v>1.200000000478596E-7</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V18" si="11">1-N16</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="V16" si="4">1-N16</f>
+        <v>1.200000000478596E-7</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="9">
-        <v>1.5</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="26">
-        <v>4.01E-9</v>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="10" t="str">
-        <f>IF($E17="Nee",0,IF(H17="Ja",IF(ISNUMBER(I17),I17,"-"),IF(ISNUMBER(G17),G17,"-")))</f>
-        <v>-</v>
+      <c r="I17" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
         <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
-        <v>D</v>
-      </c>
-      <c r="M17" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" ref="M17:M19" si="5">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
+        <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N17:N19" si="6">IF(J17="-",1,M17)</f>
         <v>1</v>
       </c>
-      <c r="O17" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="O17" s="10">
+        <f t="shared" ref="O17:O19" si="7">IF(AND(F17="Geen faalkans",H17="Nee"),0,J17*$C$3)</f>
+        <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P17:P19" si="8">IF(J17="-",0,O17)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -5794,113 +5759,163 @@
         <v>+III</v>
       </c>
       <c r="T17" s="9" t="b">
+        <f t="shared" ref="T17:T19" si="9">IF($E17="Ja",IF($H17="Ja",NOT(ISNUMBER($I17)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" ref="U17:U19" si="10">1-M17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="26">
+        <f t="shared" ref="V17:V19" si="11">1-N17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="26">
+        <v>4.01E-9</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="10" t="str">
+        <f>IF($E18="Nee",0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-")))</f>
+        <v>-</v>
+      </c>
+      <c r="K18" s="32" t="str">
+        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <v>D</v>
+      </c>
+      <c r="M18" s="31" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+        <v>+III</v>
+      </c>
+      <c r="T18" s="9" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="U17" s="10" t="e">
+      <c r="U18" s="10" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V18" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C19" s="9">
         <v>1.5</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>2.0680000000000001</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <v>1.2100000000000001E-7</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I19" s="26">
         <v>3.9999999999999994E-9</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" ref="J18" si="12">IF($E18="Nee",0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-")))</f>
+      <c r="J19" s="10">
+        <f t="shared" ref="J19" si="12">IF($E19="Nee",0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
         <v>3.9999999999999994E-9</v>
       </c>
-      <c r="K18" s="32" t="str">
-        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+      <c r="K19" s="32" t="str">
+        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
         <v>+II</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M19" s="31">
         <f t="shared" si="5"/>
         <v>0.999999996</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N19" s="10">
         <f t="shared" si="6"/>
         <v>0.999999996</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="7"/>
         <v>7.9999999999999988E-9</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P19" s="10">
         <f t="shared" si="8"/>
         <v>7.9999999999999988E-9</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-8</v>
       </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+II</v>
       </c>
-      <c r="T18" s="9" t="b">
+      <c r="T19" s="9" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U19" s="10">
         <f t="shared" si="10"/>
         <v>3.9999999978945766E-9</v>
       </c>
-      <c r="V18" s="26">
+      <c r="V19" s="26">
         <f t="shared" si="11"/>
         <v>3.9999999978945766E-9</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="12"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -7112,46 +7127,68 @@
       <c r="U74" s="9"/>
       <c r="V74" s="12"/>
     </row>
-    <row r="75" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="34"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="17"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M76" s="1"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="32"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="12"/>
+    </row>
+    <row r="76" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="34"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="17"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
     </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M78" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G75">
+  <conditionalFormatting sqref="G16:G76">
     <cfRule type="expression" dxfId="59" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I75">
+  <conditionalFormatting sqref="I16:I76">
     <cfRule type="expression" dxfId="58" priority="10">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K75">
+  <conditionalFormatting sqref="K16:K76">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7169,7 +7206,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7180,7 +7217,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7191,7 +7228,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7202,7 +7239,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7213,7 +7250,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7224,7 +7261,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7234,7 +7271,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K75</xm:sqref>
+          <xm:sqref>K16:K76</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7244,7 +7281,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E76:E91 F15:F75</xm:sqref>
+          <xm:sqref>E77:E92 F16:F76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7254,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:V17"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="F9:G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7311,211 +7348,219 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M15),MAX(O15:O15)),"GR")</f>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N15),MAX(P15:P15))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M16),MAX(O16:O16)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(U15),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(N16:N16),MAX(P16:P16))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(V15)</f>
+        <f>IFERROR(MAX(U16),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="37" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="42">
-        <v>0</v>
-      </c>
-      <c r="D15" s="42">
+      <c r="C16" s="42">
+        <v>0</v>
+      </c>
+      <c r="D16" s="42">
         <v>2.0680000000000001</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="41" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45">
-        <v>0</v>
-      </c>
-      <c r="K15" s="46" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45">
+        <v>0</v>
+      </c>
+      <c r="K16" s="46" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
         <v>NR</v>
       </c>
-      <c r="M15" s="33">
-        <f>IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="M16" s="33">
+        <f>IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="15">
-        <f>IF(J15="-",1,M15)</f>
+      <c r="N16" s="15">
+        <f>IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="15">
-        <f>IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="O16" s="15">
+        <f>IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="R15" s="14">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="R16" s="14">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
+      <c r="S16" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+III</v>
       </c>
-      <c r="T15" s="14" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="15">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="27">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M16" s="1"/>
+      <c r="T16" s="14" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="27">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M17" s="1"/>
     </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="48" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="47" priority="10">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K16">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7533,7 +7578,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{F7B08000-9400-46DD-A131-35187929BFC9}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7544,7 +7589,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6D0591F0-1D10-4810-AA14-0BE30C52E201}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7555,7 +7600,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{EF308A70-7C0F-485F-B494-C521E8B44256}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7566,7 +7611,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{9B64F30E-AFD8-4003-B940-A265D08BC3ED}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7577,7 +7622,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{DAD0CB9A-8397-4826-B226-78C7572F4129}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7588,7 +7633,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{292412C6-8FED-46EB-8018-EC091EC7347F}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7598,7 +7643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15</xm:sqref>
+          <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7608,13 +7653,13 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E16:E31</xm:sqref>
+          <xm:sqref>E17:E32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB048516-AC25-40E8-BE09-761864A40761}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F15</xm:sqref>
+          <xm:sqref>F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7624,10 +7669,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:V34"/>
+  <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7680,239 +7725,177 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M32),MAX(O15:O32)),"GR")</f>
-        <v>GR</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N32),MAX(P15:P32))</f>
-        <v>7.1118888556043203E-9</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M33),MAX(O16:O33)),"GR")</f>
+        <v>GR</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(U15:U32),"GR")</f>
-        <v>GR</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(N16:N33),MAX(P16:P33))</f>
+        <v>7.1118888556043203E-9</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(V15:V32)</f>
-        <v>6.6666666631576277E-9</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(U16:U33),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V33)</f>
+        <v>6.6666666631576277E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(M15:M32),"GR")</f>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(M16:M33),"GR")</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N32)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N33)</f>
         <v>7.1118888556043203E-9</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="37" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.1</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5" t="str">
-        <f t="shared" ref="J15:J23" si="0">IF($E15="Nee",0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5" t="str">
+        <f t="shared" ref="J16:J24" si="0">IF($E16="Nee",0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K15" s="30" t="str">
-        <f t="shared" ref="K15:K23" si="1">IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+      <c r="K16" s="30" t="str">
+        <f t="shared" ref="K16:K24" si="1">IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
         <v>D</v>
       </c>
-      <c r="M15" s="31" t="e">
-        <f>IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="M16" s="31" t="e">
+        <f>IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N15" s="10">
-        <f>IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f>IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="10" t="e">
-        <f t="shared" ref="O15:O16" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+      <c r="O16" s="10" t="e">
+        <f t="shared" ref="O16:O17" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="10" t="e">
-        <f>1-M15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M16" s="31">
-        <f t="shared" ref="M16" si="3">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" ref="N16" si="4">IF(J16="-",1,M16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P17" si="5">IF(J16="-",0,O16)</f>
+        <f>IF(J16="-",0,O16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -7928,70 +7911,66 @@
         <v>+III</v>
       </c>
       <c r="T16" s="9" t="b">
-        <f t="shared" ref="T16:T23" si="6">IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="10">
-        <f t="shared" ref="U16:U23" si="7">1-M16</f>
-        <v>0</v>
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="10" t="e">
+        <f>1-M16</f>
+        <v>#VALUE!</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V23" si="8">1-N16</f>
+        <f>1-N16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="9">
         <v>0.5</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.6</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="26">
-        <v>6.6666666666666668E-9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" s="26"/>
       <c r="H17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="26">
-        <v>2.2222222222222221E-10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I17" s="26"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>2.2222222222222221E-10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" ref="M17:M23" si="9">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
-        <v>0.99999999977777776</v>
+        <f t="shared" ref="M17" si="3">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
+        <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" ref="N17:N23" si="10">IF(J17="-",1,M17)</f>
-        <v>0.99999999977777776</v>
+        <f t="shared" ref="N17" si="4">IF(J17="-",1,M17)</f>
+        <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" ref="O17:O23" si="11">IF(AND(F17="Geen faalkans",H17="Nee"),0,J17*$C$3)</f>
-        <v>6.6666666666666664E-10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="5"/>
-        <v>6.6666666666666664E-10</v>
+        <f t="shared" ref="P17:P18" si="5">IF(J17="-",0,O17)</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -8002,66 +7981,70 @@
         <v>+III</v>
       </c>
       <c r="T17" s="9" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T17:T24" si="6">IF($E17="Ja",IF($H17="Ja",NOT(ISNUMBER($I17)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="7"/>
-        <v>2.2222224060897133E-10</v>
+        <f t="shared" ref="U17:U24" si="7">1-M17</f>
+        <v>0</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="8"/>
-        <v>2.2222224060897133E-10</v>
+        <f t="shared" ref="V17:V24" si="8">1-N17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.6</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G18" s="26">
+        <v>6.6666666666666668E-9</v>
+      </c>
       <c r="H18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2.2222222222222221E-10</v>
+      </c>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2222222222222221E-10</v>
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ref="M18:M24" si="9">IF(AND(F18="Geen faalkans",H18="Nee"),1,1-J18)</f>
+        <v>0.99999999977777776</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="N18:N24" si="10">IF(J18="-",1,M18)</f>
+        <v>0.99999999977777776</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="O18:O24" si="11">IF(AND(F18="Geen faalkans",H18="Nee"),0,J18*$C$3)</f>
+        <v>6.6666666666666664E-10</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" ref="P18:P23" si="12">IF(J18="-",0,O18)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.6666666666666664E-10</v>
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -8077,65 +8060,61 @@
       </c>
       <c r="U18" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2222224060897133E-10</v>
       </c>
       <c r="V18" s="26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2222224060897133E-10</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="9">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="E19" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" s="26"/>
       <c r="H19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="26">
-        <v>2.2300000000000001E-10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I19" s="26"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>2.2300000000000001E-10</v>
+        <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="9"/>
-        <v>0.99999999977700005</v>
+        <v>1</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="10"/>
-        <v>0.99999999977700005</v>
+        <v>1</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="11"/>
-        <v>6.6900000000000007E-10</v>
+        <v>0</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="12"/>
-        <v>6.6900000000000007E-10</v>
+        <f t="shared" ref="P19:P24" si="12">IF(J19="-",0,O19)</f>
+        <v>0</v>
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -8151,61 +8130,65 @@
       </c>
       <c r="U19" s="10">
         <f t="shared" si="7"/>
-        <v>2.2299995183772126E-10</v>
+        <v>0</v>
       </c>
       <c r="V19" s="26">
         <f t="shared" si="8"/>
-        <v>2.2299995183772126E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="9">
-        <v>1.5</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G20" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="26">
+        <v>2.2300000000000001E-10</v>
+      </c>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2300000000000001E-10</v>
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99999999977700005</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.99999999977700005</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.6900000000000007E-10</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.6900000000000007E-10</v>
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -8221,73 +8204,69 @@
       </c>
       <c r="U20" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2299995183772126E-10</v>
       </c>
       <c r="V20" s="26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2299995183772126E-10</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" s="9">
         <v>1.5</v>
       </c>
-      <c r="D21" s="9">
-        <v>1.6</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="26">
-        <v>6.6666666666666668E-9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>6.6666666666666668E-9</v>
+        <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+II</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="9"/>
-        <v>0.99999999333333334</v>
+        <v>1</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="10"/>
-        <v>0.99999999333333334</v>
+        <v>1</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="11"/>
-        <v>2E-8</v>
+        <v>0</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="12"/>
-        <v>2E-8</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="T21" s="9" t="b">
         <f t="shared" si="6"/>
@@ -8295,69 +8274,73 @@
       </c>
       <c r="U21" s="10">
         <f t="shared" si="7"/>
-        <v>6.6666666631576277E-9</v>
+        <v>0</v>
       </c>
       <c r="V21" s="26">
         <f t="shared" si="8"/>
-        <v>6.6666666631576277E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="9">
         <v>1.6</v>
       </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
       <c r="E22" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2.9999999999999997E-5</v>
+      </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="26">
+        <v>6.6666666666666668E-9</v>
+      </c>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666668E-9</v>
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+II</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99999999333333334</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.99999999333333334</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2E-8</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2E-8</v>
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>1E-8</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T22" s="9" t="b">
         <f t="shared" si="6"/>
@@ -8365,43 +8348,41 @@
       </c>
       <c r="U22" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.6666666631576277E-9</v>
       </c>
       <c r="V22" s="26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.6666666631576277E-9</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="9">
-        <v>2.0680000000000001</v>
-      </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="26">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I23" s="26"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="9"/>
@@ -8445,26 +8426,76 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="12"/>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
+        <v>+III</v>
+      </c>
+      <c r="T24" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -8620,6 +8651,1148 @@
       <c r="U31" s="9"/>
       <c r="V31" s="12"/>
     </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="32"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G16:G33">
+    <cfRule type="expression" dxfId="37" priority="5">
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I33">
+    <cfRule type="expression" dxfId="36" priority="4">
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K33">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"ND"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16:K33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AF31593-36EA-4A22-8382-C10A426B1B54}">
+          <x14:formula1>
+            <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>E34:E49 F16:F33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
+  <dimension ref="B2:V34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M32),MAX(O16:O32)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(N16:N32),MAX(P16:P32))</f>
+        <v>1.0039999960298474E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(U16:U32),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V32)</f>
+        <v>1.0000000000287557E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(M16:M32),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N32)</f>
+        <v>1.0039999960298474E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:J24" si="0">IF($E16="Nee",0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f t="shared" ref="K16:K24" si="1">IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16:M17" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N17" si="3">IF(J16="-",1,M16)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <f>IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+III</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" ref="O17:O18" si="4">IF(AND(F17="Geen faalkans",H17="Nee"),0,J17*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" ref="P17:P18" si="5">IF(J17="-",0,O17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
+        <v>+III</v>
+      </c>
+      <c r="T17" s="9" t="b">
+        <f t="shared" ref="T17:T24" si="6">IF($E17="Ja",IF($H17="Ja",NOT(ISNUMBER($I17)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" ref="U17:U24" si="7">1-M17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="26">
+        <f t="shared" ref="V17:V24" si="8">1-N17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="26">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="26">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" ref="M18:M24" si="9">IF(AND(F18="Geen faalkans",H18="Nee"),1,1-J18)</f>
+        <v>0.999999996</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" ref="N18:N24" si="10">IF(J18="-",1,M18)</f>
+        <v>0.999999996</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="R18" s="9">
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+        <v>+II</v>
+      </c>
+      <c r="T18" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="7"/>
+        <v>3.9999999978945766E-9</v>
+      </c>
+      <c r="V18" s="26">
+        <f t="shared" si="8"/>
+        <v>3.9999999978945766E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" ref="O19:O24" si="11">IF(AND(F19="Geen faalkans",H19="Nee"),0,J19*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" ref="P19:P24" si="12">IF(J19="-",0,O19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
+        <v>+III</v>
+      </c>
+      <c r="T19" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="M20" s="31" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
+        <v>+III</v>
+      </c>
+      <c r="T20" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
+        <v>+III</v>
+      </c>
+      <c r="T21" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1.2100000000000001E-7</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="9"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="10"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="11"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="12"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
+        <v>+0</v>
+      </c>
+      <c r="T22" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0000000000287557E-6</v>
+      </c>
+      <c r="V22" s="26">
+        <f t="shared" si="8"/>
+        <v>1.0000000000287557E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
+        <v>+III</v>
+      </c>
+      <c r="T23" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="M24" s="31" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
+        <v>+III</v>
+      </c>
+      <c r="T24" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="32"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="32"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="12"/>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="32"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="32"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="12"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="32"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="12"/>
+    </row>
     <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -8649,24 +9822,24 @@
       <c r="M34" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G32">
-    <cfRule type="expression" dxfId="37" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="G16:G20 G22:G32">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I32">
-    <cfRule type="expression" dxfId="36" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I16:I32">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K32">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+  <conditionalFormatting sqref="K16:K32">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8676,8 +9849,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -8687,8 +9860,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -8698,8 +9871,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -8709,8 +9882,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -8720,8 +9893,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -8731,8 +9904,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -8742,17 +9915,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K32</xm:sqref>
+          <xm:sqref>K16:K32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AF31593-36EA-4A22-8382-C10A426B1B54}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D3252B-4C33-455B-8361-35393CCA4B04}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E33:E48 F15:F32</xm:sqref>
+          <xm:sqref>E33:E48 F16:F32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8760,12 +9933,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:V34"/>
+  <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,237 +9991,175 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M32),MAX(O15:O32)),"GR")</f>
-        <v>GR</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N32),MAX(P15:P32))</f>
-        <v>9.9999999999999995E-7</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M33),MAX(O16:O33)),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(U15:U32),"GR")</f>
-        <v>GR</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(N16:N33),MAX(P16:P33))</f>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(V15:V32)</f>
-        <v>1.0000000000287557E-6</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>IFERROR(MAX(U16:U33),"GR")</f>
+        <v>GR</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V33)</f>
+        <v>1.0000000000287557E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(M15:M32),"GR")</f>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(1-PRODUCT(M16:M33),"GR")</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N32)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N33)</f>
         <v>1.0000784312902411E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="37" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.1</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5" t="str">
-        <f t="shared" ref="J15:J22" si="0">IF($E15="Nee",0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5" t="str">
+        <f t="shared" ref="J16:J23" si="0">IF($E16="Nee",0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K15" s="30" t="str">
-        <f t="shared" ref="K15:K23" si="1">IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+      <c r="K16" s="30" t="str">
+        <f t="shared" ref="K16:K24" si="1">IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
         <v>D</v>
       </c>
-      <c r="M15" s="31" t="e">
-        <f t="shared" ref="M15" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="M16" s="31" t="e">
+        <f t="shared" ref="M16" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="3">IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="3">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="10" t="e">
-        <f t="shared" ref="O15" si="4">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+      <c r="O16" s="10" t="e">
+        <f t="shared" ref="O16" si="4">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="10" t="e">
-        <f>1-M15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M16" s="31">
-        <f t="shared" ref="M16:M23" si="5">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" ref="N16:N23" si="6">IF(J16="-",1,M16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" ref="O16:O23" si="7">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
-        <v>0</v>
-      </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P23" si="8">IF(J16="-",0,O16)</f>
+        <f>IF(J16="-",0,O16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9064,68 +10175,66 @@
         <v>+III</v>
       </c>
       <c r="T16" s="9" t="b">
-        <f t="shared" ref="T16:T23" si="9">IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="10">
-        <f t="shared" ref="U16:U23" si="10">1-M16</f>
-        <v>0</v>
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="10" t="e">
+        <f>1-M16</f>
+        <v>#VALUE!</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V23" si="11">1-N16</f>
+        <f>1-N16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="9">
         <v>0.5</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.6</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="26">
-        <v>7.843137254901961E-11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" s="26"/>
       <c r="H17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>7.843137254901961E-11</v>
+        <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="5"/>
-        <v>0.99999999992156863</v>
+        <f t="shared" ref="M17:M24" si="5">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
+        <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999999992156863</v>
+        <f t="shared" ref="N17:N24" si="6">IF(J17="-",1,M17)</f>
+        <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="7"/>
-        <v>7.843137254901961E-11</v>
+        <f t="shared" ref="O17:O24" si="7">IF(AND(F17="Geen faalkans",H17="Nee"),0,J17*$C$3)</f>
+        <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="8"/>
-        <v>7.843137254901961E-11</v>
+        <f t="shared" ref="P17:P24" si="8">IF(J17="-",0,O17)</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9136,66 +10245,68 @@
         <v>+III</v>
       </c>
       <c r="T17" s="9" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T17:T24" si="9">IF($E17="Ja",IF($H17="Ja",NOT(ISNUMBER($I17)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="10"/>
-        <v>7.8431372507736796E-11</v>
+        <f t="shared" ref="U17:U24" si="10">1-M17</f>
+        <v>0</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="11"/>
-        <v>7.8431372507736796E-11</v>
+        <f t="shared" ref="V17:V24" si="11">1-N17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.6</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G18" s="26">
+        <v>7.843137254901961E-11</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999992156863</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.99999999992156863</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.843137254901961E-11</v>
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -9211,32 +10322,30 @@
       </c>
       <c r="U18" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.8431372507736796E-11</v>
       </c>
       <c r="V18" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7.8431372507736796E-11</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="9">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="E19" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" s="26"/>
       <c r="H19" s="8" t="s">
         <v>18</v>
       </c>
@@ -9247,7 +10356,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="5"/>
@@ -9292,21 +10401,23 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="9">
-        <v>1.5</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
       <c r="H20" s="8" t="s">
         <v>18</v>
       </c>
@@ -9317,7 +10428,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="5"/>
@@ -9362,64 +10473,60 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" s="9">
         <v>1.5</v>
       </c>
-      <c r="D21" s="9">
-        <v>1.6</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="26">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I21" s="26"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="5"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999899999999997</v>
+        <v>1</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="7"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="8"/>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="T21" s="9" t="b">
         <f t="shared" si="9"/>
@@ -9427,69 +10534,73 @@
       </c>
       <c r="U21" s="10">
         <f t="shared" si="10"/>
-        <v>1.0000000000287557E-6</v>
+        <v>0</v>
       </c>
       <c r="V21" s="26">
         <f t="shared" si="11"/>
-        <v>1.0000000000287557E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="9">
         <v>1.6</v>
       </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
       <c r="E22" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>NR</v>
+        <v>+0</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+0</v>
       </c>
       <c r="T22" s="9" t="b">
         <f t="shared" si="9"/>
@@ -9497,45 +10608,41 @@
       </c>
       <c r="U22" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.0000000000287557E-6</v>
       </c>
       <c r="V22" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.0000000000287557E-6</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="9">
-        <v>2.0680000000000001</v>
-      </c>
       <c r="E23" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="26">
-        <v>2.3529411764705885E-9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" s="26"/>
       <c r="H23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="26">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I23" s="26"/>
       <c r="J23" s="10">
-        <f>IF($E23="Nee",0,IF(H23="Ja",IF(ISNUMBER(I23),I23,"-"),IF(ISNUMBER(G23),G23,"-")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="5"/>
@@ -9579,26 +10686,78 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="26">
+        <v>2.3529411764705885E-9</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f>IF($E24="Nee",0,IF(H24="Ja",IF(ISNUMBER(I24),I24,"-"),IF(ISNUMBER(G24),G24,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
+        <v>+III</v>
+      </c>
+      <c r="T24" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -9754,46 +10913,68 @@
       <c r="U31" s="9"/>
       <c r="V31" s="12"/>
     </row>
-    <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="34"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="17"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="32"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M34" s="1"/>
     </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G32">
+  <conditionalFormatting sqref="G16:G33">
     <cfRule type="expression" dxfId="26" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I32">
+  <conditionalFormatting sqref="I16:I33">
     <cfRule type="expression" dxfId="25" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K32">
+  <conditionalFormatting sqref="K16:K33">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -9811,7 +10992,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{1EBB7798-64BC-4E62-B5ED-EDC8D12F766E}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -9822,7 +11003,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -9833,7 +11014,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -9844,7 +11025,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -9855,7 +11036,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -9866,7 +11047,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -9876,7 +11057,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K32</xm:sqref>
+          <xm:sqref>K16:K33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9886,1119 +11067,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E33:E48 F15:F32</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:V33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M31),MAX(O15:O31)),"GR")</f>
-        <v>GR</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N31),MAX(P15:P31))</f>
-        <v>1.0039999960298474E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>IFERROR(MAX(U15:U31),"GR")</f>
-        <v>GR</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(V15:V31)</f>
-        <v>1.0000000000287557E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f>IFERROR(1-PRODUCT(M15:M31),"GR")</f>
-        <v>GR</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N31)</f>
-        <v>1.0039999960298474E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="V14" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5">
-        <f t="shared" ref="J15:J23" si="0">IF($E15="Nee",0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f t="shared" ref="K15:K23" si="1">IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15:M16" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15:N16" si="3">IF(J15="-",1,M15)</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f>IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M16" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" ref="O16:O17" si="4">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" ref="P16:P17" si="5">IF(J16="-",0,O16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
-      </c>
-      <c r="T16" s="9" t="b">
-        <f t="shared" ref="T16:T23" si="6">IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="10">
-        <f t="shared" ref="U16:U23" si="7">1-M16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="26">
-        <f t="shared" ref="V16:V23" si="8">1-N16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="26">
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="26">
-        <v>4.0000000000000002E-9</v>
-      </c>
-      <c r="J17" s="10">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-9</v>
-      </c>
-      <c r="K17" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+II</v>
-      </c>
-      <c r="M17" s="31">
-        <f t="shared" ref="M17:M23" si="9">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
-        <v>0.999999996</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" ref="N17:N23" si="10">IF(J17="-",1,M17)</f>
-        <v>0.999999996</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="4"/>
-        <v>8.0000000000000005E-9</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000005E-9</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1E-8</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+II</v>
-      </c>
-      <c r="T17" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="10">
-        <f t="shared" si="7"/>
-        <v>3.9999999978945766E-9</v>
-      </c>
-      <c r="V17" s="26">
-        <f t="shared" si="8"/>
-        <v>3.9999999978945766E-9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M18" s="31">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" ref="O18:O23" si="11">IF(AND(F18="Geen faalkans",H18="Nee"),0,J18*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" ref="P18:P23" si="12">IF(J18="-",0,O18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="K19" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="M19" s="31" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V19" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M20" s="31">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="26">
-        <v>1.2100000000000001E-7</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K21" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+0</v>
-      </c>
-      <c r="M21" s="31">
-        <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="11"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="12"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>4</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+0</v>
-      </c>
-      <c r="T21" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <f t="shared" si="7"/>
-        <v>1.0000000000287557E-6</v>
-      </c>
-      <c r="V21" s="26">
-        <f t="shared" si="8"/>
-        <v>1.0000000000287557E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>NR</v>
-      </c>
-      <c r="M22" s="31">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="K23" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="M23" s="31" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V23" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="32"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="32"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="32"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="32"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="34"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="17"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G15:G19 G21:G31">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I31">
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K31">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>"ND"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K15:K31</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D3252B-4C33-455B-8361-35393CCA4B04}">
-          <x14:formula1>
-            <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>E32:E47 F15:F31</xm:sqref>
+          <xm:sqref>E34:E49 F16:F33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 30-4.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17861FA9-B022-4039-BE55-8EEBCB198475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60630D-E157-4661-9A54-7BBD02C9D557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Macrostabiliteit</t>
   </si>
   <si>
-    <t>Erosie van het buitentalud</t>
-  </si>
-  <si>
     <t>Duinafslag</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1692,19 +1692,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -1729,7 +1729,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -1755,21 +1755,21 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1874,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1944,7 +1944,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -1998,39 +1998,39 @@
         <v>38</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>STPH!C7</f>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>STBI!C7</f>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>GEKB!C7</f>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="31" t="str">
         <f>STKWp!C7</f>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>HTKW!C7</f>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31" t="str">
         <f>BSKW!C7</f>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2493,31 +2493,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>69</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="9">
         <v>2.0680000000000001</v>
@@ -3182,12 +3182,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>36</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -3351,15 +3351,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -3491,10 +3491,10 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -4413,7 +4413,7 @@
     </row>
     <row r="4" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -4421,15 +4421,15 @@
     </row>
     <row r="5" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -4561,10 +4561,10 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -5441,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:X78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,7 +5466,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5487,15 +5487,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -5599,10 +5599,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -5615,10 +5615,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -7340,15 +7340,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16)</f>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -7468,10 +7468,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7696,7 +7696,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -7709,7 +7709,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -7717,15 +7717,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -7831,10 +7831,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -7847,10 +7847,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -8863,15 +8863,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V32)</f>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N32)</f>
@@ -8975,10 +8975,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -8991,10 +8991,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -9823,23 +9823,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G20 G22:G32">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I32">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K32">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9962,7 +9962,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -9975,7 +9975,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -10095,10 +10095,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -10111,10 +10111,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -10965,23 +10965,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G33">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I33">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K33">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
